--- a/biology/Botanique/Verpe_en_doigt_de_gant/Verpe_en_doigt_de_gant.xlsx
+++ b/biology/Botanique/Verpe_en_doigt_de_gant/Verpe_en_doigt_de_gant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Verpa conica · Verpe en doigt de gant, Verpe en forme de dé
-Verpa conica, la Verpe conique[1] ou Verpe en doigt de gant[1], est une espèce de champignon ascomycète du genre Verpa de la famille des Morchellaceae.
-Relativement fréquente dans l'hémisphère Nord, elle se développe dans les forêts à sols sableux et humides[2].
+Verpa conica, la Verpe conique ou Verpe en doigt de gant, est une espèce de champignon ascomycète du genre Verpa de la famille des Morchellaceae.
+Relativement fréquente dans l'hémisphère Nord, elle se développe dans les forêts à sols sableux et humides.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyménophore : son chapeau est brun avec une surface sillonnée ou lisse, il est lié au stipe seulement au niveau de la pointe. La surface interne du chapeau est blanchâtre. Le diamètre du chapeau est de 2 à 4 cm.
-Le pied blanc est creux et mesure de 5 à 15 cm. La chair n'a pas d'odeur caractéristique[3].
+Le pied blanc est creux et mesure de 5 à 15 cm. La chair n'a pas d'odeur caractéristique.
 Les spores (25-33 x 15-19 µm) se forment dans des asques (300-350 x 20-24 µm) octosporés operculés. Elles sont hyalines, lisses et de forme elliptique.
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La verpe conique est toxique crue comme les autres espèces de la famille des Morchellacées.[réf. nécessaire]
 </t>
@@ -577,9 +593,11 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La verpe conique est comestible lorsqu'elle est bien cuite, mais elle est réputée moins bonne que les morilles, bien qu'elle soit proche phylogénétiquement[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La verpe conique est comestible lorsqu'elle est bien cuite, mais elle est réputée moins bonne que les morilles, bien qu'elle soit proche phylogénétiquement.
 </t>
         </is>
       </c>
